--- a/qwen1.5-32b-b3.xlsx
+++ b/qwen1.5-32b-b3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjun9\WorkSpace\vllm-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913FE97-2711-403E-A6FB-7D4EDC641503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AEBB28-65E8-44D6-A6B1-704F1362E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,10 +414,21 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
